--- a/P1/wf_Meta/test_sheets/02-27-2023.xlsx
+++ b/P1/wf_Meta/test_sheets/02-27-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature_Program\Michael-Lozano-P1\P1\wf_Meta\test_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57FA5CF-ACA2-4C27-B2AD-3D4851251A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500BBF5A-A011-4C67-9B33-920BDF48D207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26445" yWindow="-2850" windowWidth="21600" windowHeight="11295" xr2:uid="{94BD7204-8223-44CE-BD71-CE6B6C92C5A4}"/>
+    <workbookView xWindow="30165" yWindow="-1815" windowWidth="21600" windowHeight="11295" xr2:uid="{94BD7204-8223-44CE-BD71-CE6B6C92C5A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Shop" sheetId="1" r:id="rId1"/>
@@ -47,16 +47,16 @@
     <t>Chef Anton's Cajun Seasoning</t>
   </si>
   <si>
-    <t>Chef Anton's Gumbo Mix</t>
-  </si>
-  <si>
-    <t>Cote de Blaye</t>
-  </si>
-  <si>
-    <t>Genen Shouyu</t>
-  </si>
-  <si>
-    <t>Grandma's Boysenberry Spread</t>
+    <t>Chai</t>
+  </si>
+  <si>
+    <t>Chartreuse verte</t>
+  </si>
+  <si>
+    <t>Aniseed Syrup</t>
+  </si>
+  <si>
+    <t>Chang</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,26 +426,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
         <v>2</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -453,7 +453,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -461,7 +461,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
